--- a/data/exports/MT_plane_downloads/Master_Data_Template.xlsx
+++ b/data/exports/MT_plane_downloads/Master_Data_Template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.thomas\Desktop\Michael Thomas\Moreira's Magic\mm\data\exports\MT_plane_downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{920720D4-72E5-44B9-9EF8-7C7461BBC3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF309112-2F32-49C6-A140-DAA46B069D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1EAA6D6E-7449-43EC-BF3B-A7990396BF95}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1EAA6D6E-7449-43EC-BF3B-A7990396BF95}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="master_template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Season</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>away_team</t>
+  </si>
+  <si>
+    <t>minutes played</t>
   </si>
 </sst>
 </file>
@@ -141,12 +144,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,8 +176,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,103 +494,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6642365-6894-4118-8D10-B99FBB92BAE6}">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:AD1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
     </row>
